--- a/Sim_DataFrame_Plan(Revised).xlsx
+++ b/Sim_DataFrame_Plan(Revised).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorlacey/Documents/Grad School/Research/Thesis/Thesis R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CE936-CF4A-EF47-8CBB-6F1EDC58E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA905C98-D333-A54E-969D-8AC608E5D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="500" windowWidth="19620" windowHeight="17500" activeTab="2" xr2:uid="{2CE5E951-8CB5-3C4B-AF22-C52294E8CEFF}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="14180" windowHeight="17500" activeTab="2" xr2:uid="{2CE5E951-8CB5-3C4B-AF22-C52294E8CEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -468,6 +468,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -475,9 +476,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +487,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -498,7 +499,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,20 +826,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="69">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="70">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -1001,20 +1001,20 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1184,20 +1184,20 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
-        <v>0</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
+      <c r="A14" s="70">
+        <v>0</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" t="s">
@@ -1364,20 +1364,20 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="70">
         <v>1</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -1567,20 +1567,20 @@
       <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
-        <v>0</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="A28" s="70">
+        <v>0</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" t="s">
@@ -1747,20 +1747,20 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="A34" s="70">
         <v>1</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -1950,20 +1950,20 @@
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
-        <v>0</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="71"/>
+      <c r="A42" s="70">
+        <v>0</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
       <c r="M42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" t="s">
@@ -2130,20 +2130,20 @@
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="70">
         <v>1</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -2333,20 +2333,20 @@
       <c r="M55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>0</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="71"/>
+      <c r="A56" s="70">
+        <v>0</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="32"/>
       <c r="O56" s="32"/>
       <c r="P56" s="17" t="s">
@@ -2848,20 +2848,20 @@
       <c r="M71" s="11"/>
     </row>
     <row r="72" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
-        <v>0</v>
-      </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="71"/>
+      <c r="A72" s="70">
+        <v>0</v>
+      </c>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="72"/>
       <c r="M72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" t="s">
@@ -3037,20 +3037,20 @@
       <c r="M77" s="11"/>
     </row>
     <row r="78" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+      <c r="A78" s="70">
         <v>1</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="72"/>
       <c r="M78" s="11"/>
       <c r="S78" s="31"/>
       <c r="T78" s="31"/>
@@ -3249,20 +3249,20 @@
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
-        <v>0</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="71"/>
+      <c r="A86" s="70">
+        <v>0</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="72"/>
       <c r="M86" s="29"/>
       <c r="O86" s="14"/>
       <c r="P86" t="s">
@@ -3438,20 +3438,20 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+      <c r="A92" s="70">
         <v>1</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="72"/>
       <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:21" ht="21" x14ac:dyDescent="0.25">
@@ -3664,20 +3664,20 @@
       <c r="M99" s="30"/>
     </row>
     <row r="100" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
-        <v>0</v>
-      </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="72"/>
+      <c r="A100" s="70">
+        <v>0</v>
+      </c>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="76"/>
       <c r="M100" s="30"/>
       <c r="O100" s="12"/>
       <c r="P100" t="s">
@@ -3856,20 +3856,20 @@
       <c r="M105" s="30"/>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+      <c r="A106" s="70">
         <v>1</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="72"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="76"/>
       <c r="M106" s="30"/>
     </row>
     <row r="107" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -4047,6 +4047,11 @@
     <row r="121" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A78:L78"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A7:L7"/>
@@ -4058,11 +4063,6 @@
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="A56:L56"/>
     <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A106:L106"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A78:L78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4079,20 +4079,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="69">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="70">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -4254,20 +4254,20 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -4437,20 +4437,20 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
-        <v>0</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
+      <c r="A14" s="70">
+        <v>0</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" t="s">
@@ -4617,20 +4617,20 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="70">
         <v>1</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4820,20 +4820,20 @@
       <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
-        <v>0</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="A28" s="70">
+        <v>0</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" t="s">
@@ -5000,20 +5000,20 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="A34" s="70">
         <v>1</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5203,20 +5203,20 @@
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
-        <v>0</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="71"/>
+      <c r="A42" s="70">
+        <v>0</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
       <c r="M42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" t="s">
@@ -5383,20 +5383,20 @@
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="70">
         <v>1</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -5586,20 +5586,20 @@
       <c r="M55" s="32"/>
     </row>
     <row r="56" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>0</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="71"/>
+      <c r="A56" s="70">
+        <v>0</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="32"/>
       <c r="O56" s="32"/>
       <c r="P56" s="17" t="s">
@@ -5813,20 +5813,20 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+      <c r="A62" s="70">
         <v>1</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="72"/>
       <c r="M62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6075,20 +6075,20 @@
       <c r="M71" s="11"/>
     </row>
     <row r="72" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
-        <v>0</v>
-      </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="71"/>
+      <c r="A72" s="70">
+        <v>0</v>
+      </c>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="72"/>
       <c r="M72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" t="s">
@@ -6257,20 +6257,20 @@
       <c r="M77" s="11"/>
     </row>
     <row r="78" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+      <c r="A78" s="70">
         <v>1</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="72"/>
       <c r="M78" s="11"/>
       <c r="S78" s="31"/>
     </row>
@@ -6462,20 +6462,20 @@
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
-        <v>0</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="71"/>
+      <c r="A86" s="70">
+        <v>0</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="72"/>
       <c r="M86" s="29"/>
       <c r="O86" s="14"/>
       <c r="P86" t="s">
@@ -6644,20 +6644,20 @@
       <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+      <c r="A92" s="70">
         <v>1</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="72"/>
       <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:19" ht="21" x14ac:dyDescent="0.25">
@@ -6863,20 +6863,20 @@
       <c r="M99" s="30"/>
     </row>
     <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
-        <v>0</v>
-      </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="71"/>
+      <c r="A100" s="70">
+        <v>0</v>
+      </c>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="72"/>
       <c r="M100" s="30"/>
       <c r="O100" s="12"/>
       <c r="P100" t="s">
@@ -7043,20 +7043,20 @@
       <c r="M105" s="30"/>
     </row>
     <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+      <c r="A106" s="70">
         <v>1</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="71"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="72"/>
       <c r="M106" s="30"/>
     </row>
     <row r="107" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -7232,6 +7232,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A92:L92"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A42:L42"/>
     <mergeCell ref="A48:L48"/>
@@ -7241,13 +7248,6 @@
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A106:L106"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A92:L92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7257,27 +7257,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CD0FC-5C5A-4D48-A75C-088CDA672A2C}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O94" sqref="O94"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="72"/>
+      <c r="A1" s="70">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="76"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -7484,20 +7484,20 @@
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="70">
         <v>1</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -7722,20 +7722,20 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
-        <v>0</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="72"/>
+      <c r="A14" s="70">
+        <v>0</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="41"/>
       <c r="N14" s="19"/>
       <c r="O14" s="41"/>
@@ -7942,20 +7942,20 @@
       <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="70">
         <v>1</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="41"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -8200,20 +8200,20 @@
       <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
-        <v>0</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
+      <c r="A28" s="70">
+        <v>0</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="76"/>
       <c r="M28" s="43"/>
       <c r="N28" s="19"/>
       <c r="O28" s="43"/>
@@ -8420,20 +8420,20 @@
       <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="A34" s="70">
         <v>1</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="76"/>
       <c r="M34" s="43"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
@@ -8678,20 +8678,20 @@
       <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
-        <v>0</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="72"/>
+      <c r="A42" s="70">
+        <v>0</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="76"/>
       <c r="M42" s="44"/>
       <c r="N42" s="19"/>
       <c r="O42" s="44"/>
@@ -8898,20 +8898,20 @@
       <c r="R47" s="19"/>
     </row>
     <row r="48" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="70">
         <v>1</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="72"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="76"/>
       <c r="M48" s="44"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
@@ -9156,20 +9156,20 @@
       <c r="R55" s="19"/>
     </row>
     <row r="56" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>0</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="72"/>
+      <c r="A56" s="70">
+        <v>0</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="76"/>
       <c r="M56" s="46"/>
       <c r="N56" s="19"/>
       <c r="O56" s="46"/>
@@ -9435,20 +9435,20 @@
       <c r="R61" s="24"/>
     </row>
     <row r="62" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+      <c r="A62" s="70">
         <v>1</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="72"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="76"/>
       <c r="M62" s="46"/>
       <c r="N62" s="19"/>
       <c r="O62" s="65">
@@ -9788,20 +9788,20 @@
       <c r="R71" s="19"/>
     </row>
     <row r="72" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
-        <v>0</v>
-      </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="72"/>
+      <c r="A72" s="70">
+        <v>0</v>
+      </c>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="76"/>
       <c r="M72" s="41"/>
       <c r="N72" s="19"/>
       <c r="O72" s="41"/>
@@ -10038,20 +10038,20 @@
       <c r="R77" s="19"/>
     </row>
     <row r="78" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+      <c r="A78" s="70">
         <v>1</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="72"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="76"/>
       <c r="M78" s="41"/>
       <c r="N78" s="19"/>
       <c r="O78" s="19"/>
@@ -10326,20 +10326,20 @@
       <c r="R85" s="19"/>
     </row>
     <row r="86" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
-        <v>0</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="72"/>
+      <c r="A86" s="70">
+        <v>0</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="76"/>
       <c r="M86" s="29"/>
       <c r="N86" s="19"/>
       <c r="O86" s="43"/>
@@ -10549,20 +10549,20 @@
       <c r="R91" s="19"/>
     </row>
     <row r="92" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+      <c r="A92" s="70">
         <v>1</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="72"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="76"/>
       <c r="M92" s="29"/>
       <c r="N92" s="19"/>
       <c r="O92" s="19"/>
@@ -10748,7 +10748,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
-      <c r="B97" s="79">
+      <c r="B97" s="69">
         <f>AVERAGE(B94:B96)</f>
         <v>20.933333333333334</v>
       </c>
@@ -10834,20 +10834,20 @@
       <c r="R99" s="19"/>
     </row>
     <row r="100" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
-        <v>0</v>
-      </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="72"/>
+      <c r="A100" s="70">
+        <v>0</v>
+      </c>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="76"/>
       <c r="M100" s="44"/>
       <c r="N100" s="19"/>
       <c r="O100" s="44"/>
@@ -11088,20 +11088,20 @@
       <c r="R105" s="19"/>
     </row>
     <row r="106" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="76">
+      <c r="A106" s="77">
         <v>1</v>
       </c>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+      <c r="L106" s="79"/>
       <c r="M106" s="44"/>
       <c r="N106" s="19"/>
       <c r="O106" s="19"/>
@@ -11332,6 +11332,3899 @@
         <f t="shared" ref="L111" si="52">AVERAGE(L108:L110)</f>
         <v>0</v>
       </c>
+      <c r="M111" s="44"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A78:L78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0609B8E5-5ADB-334E-8F70-0AB93898CB0D}">
+  <dimension ref="A1:R111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" zoomScale="82" workbookViewId="0">
+      <selection activeCell="R95" sqref="R95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="70">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>250</v>
+      </c>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21">
+        <v>250</v>
+      </c>
+      <c r="F3" s="24">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24">
+        <v>13</v>
+      </c>
+      <c r="H3" s="25">
+        <v>16</v>
+      </c>
+      <c r="I3" s="21">
+        <v>250</v>
+      </c>
+      <c r="J3" s="24">
+        <v>19</v>
+      </c>
+      <c r="K3" s="24">
+        <v>22</v>
+      </c>
+      <c r="L3" s="25">
+        <v>25</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+    </row>
+    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>500</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25">
+        <v>8</v>
+      </c>
+      <c r="E4" s="21">
+        <v>500</v>
+      </c>
+      <c r="F4" s="24">
+        <v>11</v>
+      </c>
+      <c r="G4" s="24">
+        <v>14</v>
+      </c>
+      <c r="H4" s="25">
+        <v>17</v>
+      </c>
+      <c r="I4" s="21">
+        <v>500</v>
+      </c>
+      <c r="J4" s="24">
+        <v>20</v>
+      </c>
+      <c r="K4" s="24">
+        <v>23</v>
+      </c>
+      <c r="L4" s="25">
+        <v>26</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="26">
+        <v>12</v>
+      </c>
+      <c r="G5" s="26">
+        <v>15</v>
+      </c>
+      <c r="H5" s="27">
+        <v>18</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="26">
+        <v>21</v>
+      </c>
+      <c r="K5" s="26">
+        <v>24</v>
+      </c>
+      <c r="L5" s="27">
+        <v>27</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
+        <v>1</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>250</v>
+      </c>
+      <c r="B9" s="24">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25">
+        <v>34</v>
+      </c>
+      <c r="E9" s="21">
+        <v>250</v>
+      </c>
+      <c r="F9" s="24">
+        <v>37</v>
+      </c>
+      <c r="G9" s="24">
+        <v>40</v>
+      </c>
+      <c r="H9" s="25">
+        <v>43</v>
+      </c>
+      <c r="I9" s="21">
+        <v>250</v>
+      </c>
+      <c r="J9" s="24">
+        <v>46</v>
+      </c>
+      <c r="K9" s="24">
+        <v>49</v>
+      </c>
+      <c r="L9" s="25">
+        <v>52</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>500</v>
+      </c>
+      <c r="B10" s="24">
+        <v>29</v>
+      </c>
+      <c r="C10" s="24">
+        <v>32</v>
+      </c>
+      <c r="D10" s="25">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21">
+        <v>500</v>
+      </c>
+      <c r="F10" s="24">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24">
+        <v>41</v>
+      </c>
+      <c r="H10" s="25">
+        <v>44</v>
+      </c>
+      <c r="I10" s="21">
+        <v>500</v>
+      </c>
+      <c r="J10" s="24">
+        <v>47</v>
+      </c>
+      <c r="K10" s="24">
+        <v>50</v>
+      </c>
+      <c r="L10" s="25">
+        <v>53</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="26">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26">
+        <v>33</v>
+      </c>
+      <c r="D11" s="27">
+        <v>36</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="26">
+        <v>39</v>
+      </c>
+      <c r="G11" s="26">
+        <v>42</v>
+      </c>
+      <c r="H11" s="27">
+        <v>45</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="26">
+        <v>48</v>
+      </c>
+      <c r="K11" s="26">
+        <v>51</v>
+      </c>
+      <c r="L11" s="27">
+        <v>54</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="70">
+        <v>0</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>250</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="21">
+        <v>250</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="21">
+        <v>250</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>500</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="21">
+        <v>500</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I17" s="21">
+        <v>500</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="L18" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="70">
+        <v>1</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>250</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E22" s="21">
+        <v>250</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="I22" s="21">
+        <v>250</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>500</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="E23" s="21">
+        <v>500</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="I23" s="21">
+        <v>500</v>
+      </c>
+      <c r="J23" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="70">
+        <v>0</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M29" s="43"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+    </row>
+    <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>250</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="21">
+        <v>250</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="21">
+        <v>250</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="L30" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>500</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="21">
+        <v>500</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I31" s="21">
+        <v>500</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L31" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L32" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+    </row>
+    <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="70">
+        <v>1</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>250</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E36" s="21">
+        <v>250</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="I36" s="21">
+        <v>250</v>
+      </c>
+      <c r="J36" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="K36" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="L36" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>500</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="E37" s="21">
+        <v>500</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="H37" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="I37" s="21">
+        <v>500</v>
+      </c>
+      <c r="J37" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="K37" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="L37" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="M37" s="43"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B38" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="H38" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="K38" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="L38" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+    </row>
+    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="70">
+        <v>0</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+    </row>
+    <row r="43" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I43" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M43" s="44"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+    </row>
+    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>250</v>
+      </c>
+      <c r="B44" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E44" s="21">
+        <v>250</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="21">
+        <v>250</v>
+      </c>
+      <c r="J44" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="K44" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L44" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M44" s="44"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+    </row>
+    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>500</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D45" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E45" s="21">
+        <v>500</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="I45" s="21">
+        <v>500</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L45" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="M45" s="44"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B46" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H46" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I46" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L46" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="M46" s="44"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+    </row>
+    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="70">
+        <v>1</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I49" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>250</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E50" s="21">
+        <v>250</v>
+      </c>
+      <c r="F50" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="H50" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="I50" s="21">
+        <v>250</v>
+      </c>
+      <c r="J50" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="K50" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="L50" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="M50" s="44"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>500</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="E51" s="21">
+        <v>500</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="H51" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="I51" s="21">
+        <v>500</v>
+      </c>
+      <c r="J51" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="K51" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="L51" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="M51" s="44"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="D52" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="E52" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="I52" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="K52" s="26">
+        <v>0.34</v>
+      </c>
+      <c r="L52" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="70">
+        <v>0</v>
+      </c>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+    </row>
+    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I57" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J57" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K57" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M57" s="46"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+    </row>
+    <row r="58" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>250</v>
+      </c>
+      <c r="B58" s="55">
+        <f>1-(B44/B16)</f>
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="C58" s="55">
+        <f t="shared" ref="C58:D58" si="0">1-(C44/C16)</f>
+        <v>3.2258064516129115E-2</v>
+      </c>
+      <c r="D58" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>250</v>
+      </c>
+      <c r="F58" s="55">
+        <f>1-(F44/F16)</f>
+        <v>0.19047619047619035</v>
+      </c>
+      <c r="G58" s="55">
+        <f t="shared" ref="G58:H58" si="1">1-(G44/G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="21">
+        <v>250</v>
+      </c>
+      <c r="J58" s="55">
+        <f>1-(J44/J16)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K58" s="55">
+        <f t="shared" ref="K58:L58" si="2">1-(K44/K16)</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="L58" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="46"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+    </row>
+    <row r="59" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>500</v>
+      </c>
+      <c r="B59" s="55">
+        <f t="shared" ref="B59:D60" si="3">1-(B45/B17)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="C59" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="21">
+        <v>500</v>
+      </c>
+      <c r="F59" s="55">
+        <f t="shared" ref="F59:H59" si="4">1-(F45/F17)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G59" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="55">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="I59" s="21">
+        <v>500</v>
+      </c>
+      <c r="J59" s="55">
+        <f t="shared" ref="J59:L59" si="5">1-(J45/J17)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K59" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="46"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="24"/>
+    </row>
+    <row r="60" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="55">
+        <f t="shared" ref="F60:H60" si="6">1-(F46/F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="55">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="H60" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="55">
+        <f t="shared" ref="J60:L60" si="7">1-(J46/J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="55">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="L60" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="46"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="24"/>
+    </row>
+    <row r="61" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="24"/>
+    </row>
+    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="70">
+        <v>1</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B63" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I63" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J63" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M63" s="46"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+    </row>
+    <row r="64" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>250</v>
+      </c>
+      <c r="B64" s="55">
+        <f>1-(B50/B22)</f>
+        <v>3.8461538461538547E-2</v>
+      </c>
+      <c r="C64" s="55">
+        <f t="shared" ref="C64:D64" si="8">1-(C50/C22)</f>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="D64" s="55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
+        <v>250</v>
+      </c>
+      <c r="F64" s="55">
+        <f>1-(F50/F22)</f>
+        <v>3.703703703703709E-2</v>
+      </c>
+      <c r="G64" s="55">
+        <f t="shared" ref="G64:H64" si="9">1-(G50/G22)</f>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="H64" s="55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="21">
+        <v>250</v>
+      </c>
+      <c r="J64" s="55">
+        <f>1-(J50/J22)</f>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="K64" s="55">
+        <f t="shared" ref="K64:L64" si="10">1-(K50/K22)</f>
+        <v>2.9411764705882359E-2</v>
+      </c>
+      <c r="L64" s="55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="46"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+    </row>
+    <row r="65" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>500</v>
+      </c>
+      <c r="B65" s="55">
+        <f t="shared" ref="B65:D65" si="11">1-(B51/B23)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="55">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="21">
+        <v>500</v>
+      </c>
+      <c r="F65" s="55">
+        <f t="shared" ref="F65:H65" si="12">1-(F51/F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="55">
+        <f t="shared" si="12"/>
+        <v>2.9411764705882359E-2</v>
+      </c>
+      <c r="H65" s="55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="21">
+        <v>500</v>
+      </c>
+      <c r="J65" s="55">
+        <f t="shared" ref="J65:L65" si="13">1-(J51/J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="55">
+        <f t="shared" si="13"/>
+        <v>2.9411764705882359E-2</v>
+      </c>
+      <c r="L65" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="46"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="24"/>
+    </row>
+    <row r="66" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B66" s="55">
+        <f t="shared" ref="B66:D66" si="14">1-(B52/B24)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="55">
+        <f t="shared" ref="F66:H66" si="15">1-(F52/F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="55">
+        <f t="shared" ref="J66:L66" si="16">1-(J52/J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="55">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="55">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="46"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="24"/>
+    </row>
+    <row r="67" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="24"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="50"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="19"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+    </row>
+    <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="70">
+        <v>0</v>
+      </c>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+    </row>
+    <row r="73" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D73" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E73" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G73" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I73" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J73" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K73" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M73" s="41"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+    </row>
+    <row r="74" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>250</v>
+      </c>
+      <c r="B74" s="24">
+        <v>12.4</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D74" s="25">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
+        <v>250</v>
+      </c>
+      <c r="F74" s="24">
+        <v>11</v>
+      </c>
+      <c r="G74" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H74" s="25">
+        <v>0</v>
+      </c>
+      <c r="I74" s="21">
+        <v>250</v>
+      </c>
+      <c r="J74" s="24">
+        <v>10.6</v>
+      </c>
+      <c r="K74" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="L74" s="25">
+        <v>0</v>
+      </c>
+      <c r="M74" s="41"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+    </row>
+    <row r="75" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>500</v>
+      </c>
+      <c r="B75" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0</v>
+      </c>
+      <c r="D75" s="25">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
+        <v>500</v>
+      </c>
+      <c r="F75" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0</v>
+      </c>
+      <c r="H75" s="25">
+        <v>0</v>
+      </c>
+      <c r="I75" s="21">
+        <v>500</v>
+      </c>
+      <c r="J75" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="K75" s="24">
+        <v>0</v>
+      </c>
+      <c r="L75" s="25">
+        <v>0</v>
+      </c>
+      <c r="M75" s="41"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+    </row>
+    <row r="76" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B76" s="26">
+        <v>0</v>
+      </c>
+      <c r="C76" s="26">
+        <v>0</v>
+      </c>
+      <c r="D76" s="27">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="26">
+        <v>0</v>
+      </c>
+      <c r="G76" s="26">
+        <v>0</v>
+      </c>
+      <c r="H76" s="27">
+        <v>0</v>
+      </c>
+      <c r="I76" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="26">
+        <v>0</v>
+      </c>
+      <c r="K76" s="26">
+        <v>0</v>
+      </c>
+      <c r="L76" s="27">
+        <v>0</v>
+      </c>
+      <c r="M76" s="41"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+    </row>
+    <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="70">
+        <v>1</v>
+      </c>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+    </row>
+    <row r="79" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B79" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L79" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M79" s="41"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+    </row>
+    <row r="80" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>250</v>
+      </c>
+      <c r="B80" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D80" s="25">
+        <v>0</v>
+      </c>
+      <c r="E80" s="21">
+        <v>250</v>
+      </c>
+      <c r="F80" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H80" s="25">
+        <v>0</v>
+      </c>
+      <c r="I80" s="21">
+        <v>250</v>
+      </c>
+      <c r="J80" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="K80" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="L80" s="25">
+        <v>0</v>
+      </c>
+      <c r="M80" s="41"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+    </row>
+    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>500</v>
+      </c>
+      <c r="B81" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="24">
+        <v>0</v>
+      </c>
+      <c r="D81" s="25">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21">
+        <v>500</v>
+      </c>
+      <c r="F81" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G81" s="24">
+        <v>0</v>
+      </c>
+      <c r="H81" s="25">
+        <v>0</v>
+      </c>
+      <c r="I81" s="21">
+        <v>500</v>
+      </c>
+      <c r="J81" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K81" s="24">
+        <v>0</v>
+      </c>
+      <c r="L81" s="25">
+        <v>0</v>
+      </c>
+      <c r="M81" s="41"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+    </row>
+    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B82" s="26">
+        <v>0</v>
+      </c>
+      <c r="C82" s="26">
+        <v>0</v>
+      </c>
+      <c r="D82" s="27">
+        <v>0</v>
+      </c>
+      <c r="E82" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F82" s="26">
+        <v>0</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0</v>
+      </c>
+      <c r="H82" s="27">
+        <v>0</v>
+      </c>
+      <c r="I82" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J82" s="26">
+        <v>0</v>
+      </c>
+      <c r="K82" s="26">
+        <v>0</v>
+      </c>
+      <c r="L82" s="27">
+        <v>0</v>
+      </c>
+      <c r="M82" s="41"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+    </row>
+    <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="70">
+        <v>0</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+    </row>
+    <row r="87" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B87" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D87" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I87" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J87" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L87" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M87" s="29"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+    </row>
+    <row r="88" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <v>250</v>
+      </c>
+      <c r="B88" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="C88" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D88" s="25">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21">
+        <v>250</v>
+      </c>
+      <c r="F88" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="G88" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H88" s="25">
+        <v>0</v>
+      </c>
+      <c r="I88" s="21">
+        <v>250</v>
+      </c>
+      <c r="J88" s="24">
+        <v>10.6</v>
+      </c>
+      <c r="K88" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="L88" s="25">
+        <v>0</v>
+      </c>
+      <c r="M88" s="29"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+    </row>
+    <row r="89" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>500</v>
+      </c>
+      <c r="B89" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="C89" s="24">
+        <v>0</v>
+      </c>
+      <c r="D89" s="25">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21">
+        <v>500</v>
+      </c>
+      <c r="F89" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="G89" s="24">
+        <v>0</v>
+      </c>
+      <c r="H89" s="25">
+        <v>0</v>
+      </c>
+      <c r="I89" s="21">
+        <v>500</v>
+      </c>
+      <c r="J89" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="K89" s="24">
+        <v>0</v>
+      </c>
+      <c r="L89" s="25">
+        <v>0</v>
+      </c>
+      <c r="M89" s="29"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+    </row>
+    <row r="90" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B90" s="26">
+        <v>0</v>
+      </c>
+      <c r="C90" s="26">
+        <v>0</v>
+      </c>
+      <c r="D90" s="27">
+        <v>0</v>
+      </c>
+      <c r="E90" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F90" s="26">
+        <v>0</v>
+      </c>
+      <c r="G90" s="26">
+        <v>0</v>
+      </c>
+      <c r="H90" s="27">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J90" s="26">
+        <v>0</v>
+      </c>
+      <c r="K90" s="26">
+        <v>0</v>
+      </c>
+      <c r="L90" s="27">
+        <v>0</v>
+      </c>
+      <c r="M90" s="29"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+    </row>
+    <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="70">
+        <v>1</v>
+      </c>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="76"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+    </row>
+    <row r="93" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B93" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D93" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H93" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I93" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J93" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M93" s="29"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+    </row>
+    <row r="94" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>250</v>
+      </c>
+      <c r="B94" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D94" s="25">
+        <v>0</v>
+      </c>
+      <c r="E94" s="21">
+        <v>250</v>
+      </c>
+      <c r="F94" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="G94" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H94" s="25">
+        <v>0</v>
+      </c>
+      <c r="I94" s="21">
+        <v>250</v>
+      </c>
+      <c r="J94" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="K94" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="L94" s="25">
+        <v>0</v>
+      </c>
+      <c r="M94" s="29"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+    </row>
+    <row r="95" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>500</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0</v>
+      </c>
+      <c r="D95" s="25">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>500</v>
+      </c>
+      <c r="F95" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0</v>
+      </c>
+      <c r="H95" s="25">
+        <v>0</v>
+      </c>
+      <c r="I95" s="21">
+        <v>500</v>
+      </c>
+      <c r="J95" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K95" s="24">
+        <v>0</v>
+      </c>
+      <c r="L95" s="25">
+        <v>0</v>
+      </c>
+      <c r="M95" s="29"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+    </row>
+    <row r="96" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B96" s="26">
+        <v>0</v>
+      </c>
+      <c r="C96" s="26">
+        <v>0</v>
+      </c>
+      <c r="D96" s="27">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" s="26">
+        <v>0</v>
+      </c>
+      <c r="H96" s="27">
+        <v>0</v>
+      </c>
+      <c r="I96" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J96" s="26">
+        <v>0</v>
+      </c>
+      <c r="K96" s="26">
+        <v>0</v>
+      </c>
+      <c r="L96" s="27">
+        <v>0</v>
+      </c>
+      <c r="M96" s="29"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+    </row>
+    <row r="98" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+    </row>
+    <row r="100" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="70">
+        <v>0</v>
+      </c>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+    </row>
+    <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="B101" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C101" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D101" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K101" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L101" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M101" s="44"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+    </row>
+    <row r="102" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>250</v>
+      </c>
+      <c r="B102" s="24">
+        <v>54.4</v>
+      </c>
+      <c r="C102" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="D102" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E102" s="21">
+        <v>250</v>
+      </c>
+      <c r="F102" s="24">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G102" s="24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H102" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I102" s="21">
+        <v>250</v>
+      </c>
+      <c r="J102" s="24">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="K102" s="24">
+        <v>23.6</v>
+      </c>
+      <c r="L102" s="25">
+        <v>1</v>
+      </c>
+      <c r="M102" s="44"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+    </row>
+    <row r="103" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>500</v>
+      </c>
+      <c r="B103" s="24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C103" s="24">
+        <v>0</v>
+      </c>
+      <c r="D103" s="25">
+        <v>0</v>
+      </c>
+      <c r="E103" s="21">
+        <v>500</v>
+      </c>
+      <c r="F103" s="24">
+        <v>24.6</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H103" s="25">
+        <v>0</v>
+      </c>
+      <c r="I103" s="21">
+        <v>500</v>
+      </c>
+      <c r="J103" s="24">
+        <v>37</v>
+      </c>
+      <c r="K103" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="L103" s="25">
+        <v>0</v>
+      </c>
+      <c r="M103" s="44"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+    </row>
+    <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B104" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="C104" s="26">
+        <v>0</v>
+      </c>
+      <c r="D104" s="27">
+        <v>0</v>
+      </c>
+      <c r="E104" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F104" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G104" s="26">
+        <v>0</v>
+      </c>
+      <c r="H104" s="27">
+        <v>0</v>
+      </c>
+      <c r="I104" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J104" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="K104" s="26">
+        <v>0</v>
+      </c>
+      <c r="L104" s="27">
+        <v>0</v>
+      </c>
+      <c r="M104" s="44"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+    </row>
+    <row r="106" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="70">
+        <v>1</v>
+      </c>
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="76"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+    </row>
+    <row r="107" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="A107" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="B107" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D107" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F107" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G107" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H107" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="J107" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K107" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L107" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="M107" s="44"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <v>250</v>
+      </c>
+      <c r="B108" s="24">
+        <v>29.4</v>
+      </c>
+      <c r="C108" s="24">
+        <v>7</v>
+      </c>
+      <c r="D108" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E108" s="21">
+        <v>250</v>
+      </c>
+      <c r="F108" s="24">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G108" s="24">
+        <v>12</v>
+      </c>
+      <c r="H108" s="25">
+        <v>43</v>
+      </c>
+      <c r="I108" s="21">
+        <v>250</v>
+      </c>
+      <c r="J108" s="24">
+        <v>44.8</v>
+      </c>
+      <c r="K108" s="24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L108" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="M108" s="44"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+    </row>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
+        <v>500</v>
+      </c>
+      <c r="B109" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C109" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D109" s="25">
+        <v>0</v>
+      </c>
+      <c r="E109" s="21">
+        <v>500</v>
+      </c>
+      <c r="F109" s="24">
+        <v>7.6</v>
+      </c>
+      <c r="G109" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H109" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I109" s="21">
+        <v>500</v>
+      </c>
+      <c r="J109" s="24">
+        <v>9.4</v>
+      </c>
+      <c r="K109" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="L109" s="25">
+        <v>0</v>
+      </c>
+      <c r="M109" s="44"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+    </row>
+    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B110" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C110" s="26">
+        <v>0</v>
+      </c>
+      <c r="D110" s="27">
+        <v>0</v>
+      </c>
+      <c r="E110" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F110" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G110" s="26">
+        <v>0</v>
+      </c>
+      <c r="H110" s="27">
+        <v>0</v>
+      </c>
+      <c r="I110" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J110" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K110" s="26">
+        <v>0</v>
+      </c>
+      <c r="L110" s="27">
+        <v>0</v>
+      </c>
+      <c r="M110" s="44"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
       <c r="M111" s="44"/>
       <c r="N111" s="19"/>
       <c r="O111" s="19"/>
@@ -11360,3897 +15253,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0609B8E5-5ADB-334E-8F70-0AB93898CB0D}">
-  <dimension ref="A1:R111"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="82" workbookViewId="0">
-      <selection activeCell="R95" sqref="R95"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="69">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-    </row>
-    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>250</v>
-      </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24">
-        <v>4</v>
-      </c>
-      <c r="D3" s="25">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21">
-        <v>250</v>
-      </c>
-      <c r="F3" s="24">
-        <v>10</v>
-      </c>
-      <c r="G3" s="24">
-        <v>13</v>
-      </c>
-      <c r="H3" s="25">
-        <v>16</v>
-      </c>
-      <c r="I3" s="21">
-        <v>250</v>
-      </c>
-      <c r="J3" s="24">
-        <v>19</v>
-      </c>
-      <c r="K3" s="24">
-        <v>22</v>
-      </c>
-      <c r="L3" s="25">
-        <v>25</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-    </row>
-    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>500</v>
-      </c>
-      <c r="B4" s="24">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24">
-        <v>5</v>
-      </c>
-      <c r="D4" s="25">
-        <v>8</v>
-      </c>
-      <c r="E4" s="21">
-        <v>500</v>
-      </c>
-      <c r="F4" s="24">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24">
-        <v>14</v>
-      </c>
-      <c r="H4" s="25">
-        <v>17</v>
-      </c>
-      <c r="I4" s="21">
-        <v>500</v>
-      </c>
-      <c r="J4" s="24">
-        <v>20</v>
-      </c>
-      <c r="K4" s="24">
-        <v>23</v>
-      </c>
-      <c r="L4" s="25">
-        <v>26</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="26">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26">
-        <v>6</v>
-      </c>
-      <c r="D5" s="27">
-        <v>9</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="26">
-        <v>12</v>
-      </c>
-      <c r="G5" s="26">
-        <v>15</v>
-      </c>
-      <c r="H5" s="27">
-        <v>18</v>
-      </c>
-      <c r="I5" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="26">
-        <v>21</v>
-      </c>
-      <c r="K5" s="26">
-        <v>24</v>
-      </c>
-      <c r="L5" s="27">
-        <v>27</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
-        <v>1</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>250</v>
-      </c>
-      <c r="B9" s="24">
-        <v>28</v>
-      </c>
-      <c r="C9" s="24">
-        <v>31</v>
-      </c>
-      <c r="D9" s="25">
-        <v>34</v>
-      </c>
-      <c r="E9" s="21">
-        <v>250</v>
-      </c>
-      <c r="F9" s="24">
-        <v>37</v>
-      </c>
-      <c r="G9" s="24">
-        <v>40</v>
-      </c>
-      <c r="H9" s="25">
-        <v>43</v>
-      </c>
-      <c r="I9" s="21">
-        <v>250</v>
-      </c>
-      <c r="J9" s="24">
-        <v>46</v>
-      </c>
-      <c r="K9" s="24">
-        <v>49</v>
-      </c>
-      <c r="L9" s="25">
-        <v>52</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>500</v>
-      </c>
-      <c r="B10" s="24">
-        <v>29</v>
-      </c>
-      <c r="C10" s="24">
-        <v>32</v>
-      </c>
-      <c r="D10" s="25">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21">
-        <v>500</v>
-      </c>
-      <c r="F10" s="24">
-        <v>38</v>
-      </c>
-      <c r="G10" s="24">
-        <v>41</v>
-      </c>
-      <c r="H10" s="25">
-        <v>44</v>
-      </c>
-      <c r="I10" s="21">
-        <v>500</v>
-      </c>
-      <c r="J10" s="24">
-        <v>47</v>
-      </c>
-      <c r="K10" s="24">
-        <v>50</v>
-      </c>
-      <c r="L10" s="25">
-        <v>53</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="26">
-        <v>30</v>
-      </c>
-      <c r="C11" s="26">
-        <v>33</v>
-      </c>
-      <c r="D11" s="27">
-        <v>36</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="26">
-        <v>39</v>
-      </c>
-      <c r="G11" s="26">
-        <v>42</v>
-      </c>
-      <c r="H11" s="27">
-        <v>45</v>
-      </c>
-      <c r="I11" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="26">
-        <v>48</v>
-      </c>
-      <c r="K11" s="26">
-        <v>51</v>
-      </c>
-      <c r="L11" s="27">
-        <v>54</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
-        <v>0</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>250</v>
-      </c>
-      <c r="B16" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="21">
-        <v>250</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="I16" s="21">
-        <v>250</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="L16" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>500</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="21">
-        <v>500</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="I17" s="21">
-        <v>500</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
-        <v>1</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-    </row>
-    <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L21" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>250</v>
-      </c>
-      <c r="B22" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0.35</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="E22" s="21">
-        <v>250</v>
-      </c>
-      <c r="F22" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0.35</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="I22" s="21">
-        <v>250</v>
-      </c>
-      <c r="J22" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="K22" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>500</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="E23" s="21">
-        <v>500</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="I23" s="21">
-        <v>500</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B24" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="D24" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-    </row>
-    <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
-        <v>0</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-    </row>
-    <row r="29" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>250</v>
-      </c>
-      <c r="B30" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E30" s="21">
-        <v>250</v>
-      </c>
-      <c r="F30" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="I30" s="21">
-        <v>250</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="K30" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="L30" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-    </row>
-    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>500</v>
-      </c>
-      <c r="B31" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C31" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="21">
-        <v>500</v>
-      </c>
-      <c r="F31" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I31" s="21">
-        <v>500</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L31" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M31" s="43"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B32" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D32" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H32" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="I32" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="K32" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L32" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="M32" s="43"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-    </row>
-    <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
-        <v>1</v>
-      </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D35" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I35" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K35" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L35" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-    </row>
-    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>250</v>
-      </c>
-      <c r="B36" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="D36" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="E36" s="21">
-        <v>250</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="G36" s="24">
-        <v>0.35</v>
-      </c>
-      <c r="H36" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="I36" s="21">
-        <v>250</v>
-      </c>
-      <c r="J36" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="K36" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="L36" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="M36" s="43"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-    </row>
-    <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>500</v>
-      </c>
-      <c r="B37" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="D37" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="E37" s="21">
-        <v>500</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="G37" s="24">
-        <v>0.33</v>
-      </c>
-      <c r="H37" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="I37" s="21">
-        <v>500</v>
-      </c>
-      <c r="J37" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="K37" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="L37" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="M37" s="43"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B38" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="D38" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="E38" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="G38" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="H38" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="I38" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J38" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="K38" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="L38" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="M38" s="43"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-    </row>
-    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
-        <v>0</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-    </row>
-    <row r="43" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B43" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E43" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J43" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K43" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-    </row>
-    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>250</v>
-      </c>
-      <c r="B44" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D44" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="21">
-        <v>250</v>
-      </c>
-      <c r="F44" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="G44" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="H44" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="I44" s="21">
-        <v>250</v>
-      </c>
-      <c r="J44" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="K44" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L44" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M44" s="44"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-    </row>
-    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>500</v>
-      </c>
-      <c r="B45" s="24">
-        <v>0.19</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D45" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E45" s="21">
-        <v>500</v>
-      </c>
-      <c r="F45" s="24">
-        <v>0.19</v>
-      </c>
-      <c r="G45" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H45" s="25">
-        <v>0.39</v>
-      </c>
-      <c r="I45" s="21">
-        <v>500</v>
-      </c>
-      <c r="J45" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="K45" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L45" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-    </row>
-    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B46" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C46" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D46" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="E46" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G46" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="I46" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="K46" s="26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L46" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-    </row>
-    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
-        <v>1</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-    </row>
-    <row r="49" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B49" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J49" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K49" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L49" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M49" s="44"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-    </row>
-    <row r="50" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
-        <v>250</v>
-      </c>
-      <c r="B50" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="D50" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="E50" s="21">
-        <v>250</v>
-      </c>
-      <c r="F50" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="G50" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="H50" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="I50" s="21">
-        <v>250</v>
-      </c>
-      <c r="J50" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="K50" s="24">
-        <v>0.33</v>
-      </c>
-      <c r="L50" s="25">
-        <v>0.46</v>
-      </c>
-      <c r="M50" s="44"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-    </row>
-    <row r="51" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>500</v>
-      </c>
-      <c r="B51" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0.34</v>
-      </c>
-      <c r="D51" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="E51" s="21">
-        <v>500</v>
-      </c>
-      <c r="F51" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="G51" s="24">
-        <v>0.33</v>
-      </c>
-      <c r="H51" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="I51" s="21">
-        <v>500</v>
-      </c>
-      <c r="J51" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="K51" s="24">
-        <v>0.33</v>
-      </c>
-      <c r="L51" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="M51" s="44"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-    </row>
-    <row r="52" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B52" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="C52" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="D52" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="E52" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="G52" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="H52" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="I52" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="K52" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="L52" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-    </row>
-    <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>0</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-    </row>
-    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B57" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C57" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D57" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E57" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H57" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I57" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J57" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L57" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-    </row>
-    <row r="58" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
-        <v>250</v>
-      </c>
-      <c r="B58" s="55">
-        <f>1-(B44/B16)</f>
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="C58" s="55">
-        <f t="shared" ref="C58:D58" si="0">1-(C44/C16)</f>
-        <v>3.2258064516129115E-2</v>
-      </c>
-      <c r="D58" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="21">
-        <v>250</v>
-      </c>
-      <c r="F58" s="55">
-        <f>1-(F44/F16)</f>
-        <v>0.19047619047619035</v>
-      </c>
-      <c r="G58" s="55">
-        <f t="shared" ref="G58:H58" si="1">1-(G44/G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="21">
-        <v>250</v>
-      </c>
-      <c r="J58" s="55">
-        <f>1-(J44/J16)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K58" s="55">
-        <f t="shared" ref="K58:L58" si="2">1-(K44/K16)</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="L58" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="46"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-    </row>
-    <row r="59" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
-        <v>500</v>
-      </c>
-      <c r="B59" s="55">
-        <f t="shared" ref="B59:D60" si="3">1-(B45/B17)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="C59" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D59" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="21">
-        <v>500</v>
-      </c>
-      <c r="F59" s="55">
-        <f t="shared" ref="F59:H59" si="4">1-(F45/F17)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G59" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="55">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="I59" s="21">
-        <v>500</v>
-      </c>
-      <c r="J59" s="55">
-        <f t="shared" ref="J59:L59" si="5">1-(J45/J17)</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="K59" s="55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="46"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="24"/>
-    </row>
-    <row r="60" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B60" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F60" s="55">
-        <f t="shared" ref="F60:H60" si="6">1-(F46/F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="55">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="H60" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J60" s="55">
-        <f t="shared" ref="J60:L60" si="7">1-(J46/J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="55">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="L60" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="46"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="24"/>
-    </row>
-    <row r="61" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="24"/>
-    </row>
-    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
-        <v>1</v>
-      </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-    </row>
-    <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B63" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C63" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D63" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G63" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H63" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I63" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J63" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K63" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L63" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M63" s="46"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-    </row>
-    <row r="64" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>250</v>
-      </c>
-      <c r="B64" s="55">
-        <f>1-(B50/B22)</f>
-        <v>3.8461538461538547E-2</v>
-      </c>
-      <c r="C64" s="55">
-        <f t="shared" ref="C64:D64" si="8">1-(C50/C22)</f>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="D64" s="55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="21">
-        <v>250</v>
-      </c>
-      <c r="F64" s="55">
-        <f>1-(F50/F22)</f>
-        <v>3.703703703703709E-2</v>
-      </c>
-      <c r="G64" s="55">
-        <f t="shared" ref="G64:H64" si="9">1-(G50/G22)</f>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="H64" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="21">
-        <v>250</v>
-      </c>
-      <c r="J64" s="55">
-        <f>1-(J50/J22)</f>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="K64" s="55">
-        <f t="shared" ref="K64:L64" si="10">1-(K50/K22)</f>
-        <v>2.9411764705882359E-2</v>
-      </c>
-      <c r="L64" s="55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="46"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-    </row>
-    <row r="65" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <v>500</v>
-      </c>
-      <c r="B65" s="55">
-        <f t="shared" ref="B65:D65" si="11">1-(B51/B23)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
-        <v>500</v>
-      </c>
-      <c r="F65" s="55">
-        <f t="shared" ref="F65:H65" si="12">1-(F51/F23)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="55">
-        <f t="shared" si="12"/>
-        <v>2.9411764705882359E-2</v>
-      </c>
-      <c r="H65" s="55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="21">
-        <v>500</v>
-      </c>
-      <c r="J65" s="55">
-        <f t="shared" ref="J65:L65" si="13">1-(J51/J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="55">
-        <f t="shared" si="13"/>
-        <v>2.9411764705882359E-2</v>
-      </c>
-      <c r="L65" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="46"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="24"/>
-    </row>
-    <row r="66" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B66" s="55">
-        <f t="shared" ref="B66:D66" si="14">1-(B52/B24)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F66" s="55">
-        <f t="shared" ref="F66:H66" si="15">1-(F52/F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J66" s="55">
-        <f t="shared" ref="J66:L66" si="16">1-(J52/J24)</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="55">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="55">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="46"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="24"/>
-    </row>
-    <row r="67" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="24"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="19"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-    </row>
-    <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
-        <v>0</v>
-      </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-    </row>
-    <row r="73" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B73" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C73" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D73" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E73" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F73" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G73" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H73" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I73" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J73" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K73" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L73" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M73" s="41"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-    </row>
-    <row r="74" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
-        <v>250</v>
-      </c>
-      <c r="B74" s="24">
-        <v>12.4</v>
-      </c>
-      <c r="C74" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D74" s="25">
-        <v>0</v>
-      </c>
-      <c r="E74" s="21">
-        <v>250</v>
-      </c>
-      <c r="F74" s="24">
-        <v>11</v>
-      </c>
-      <c r="G74" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="H74" s="25">
-        <v>0</v>
-      </c>
-      <c r="I74" s="21">
-        <v>250</v>
-      </c>
-      <c r="J74" s="24">
-        <v>10.6</v>
-      </c>
-      <c r="K74" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="L74" s="25">
-        <v>0</v>
-      </c>
-      <c r="M74" s="41"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-    </row>
-    <row r="75" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
-        <v>500</v>
-      </c>
-      <c r="B75" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="C75" s="24">
-        <v>0</v>
-      </c>
-      <c r="D75" s="25">
-        <v>0</v>
-      </c>
-      <c r="E75" s="21">
-        <v>500</v>
-      </c>
-      <c r="F75" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="G75" s="24">
-        <v>0</v>
-      </c>
-      <c r="H75" s="25">
-        <v>0</v>
-      </c>
-      <c r="I75" s="21">
-        <v>500</v>
-      </c>
-      <c r="J75" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="K75" s="24">
-        <v>0</v>
-      </c>
-      <c r="L75" s="25">
-        <v>0</v>
-      </c>
-      <c r="M75" s="41"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-    </row>
-    <row r="76" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B76" s="26">
-        <v>0</v>
-      </c>
-      <c r="C76" s="26">
-        <v>0</v>
-      </c>
-      <c r="D76" s="27">
-        <v>0</v>
-      </c>
-      <c r="E76" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F76" s="26">
-        <v>0</v>
-      </c>
-      <c r="G76" s="26">
-        <v>0</v>
-      </c>
-      <c r="H76" s="27">
-        <v>0</v>
-      </c>
-      <c r="I76" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="26">
-        <v>0</v>
-      </c>
-      <c r="K76" s="26">
-        <v>0</v>
-      </c>
-      <c r="L76" s="27">
-        <v>0</v>
-      </c>
-      <c r="M76" s="41"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-    </row>
-    <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
-        <v>1</v>
-      </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-    </row>
-    <row r="79" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A79" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B79" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C79" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D79" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E79" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F79" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G79" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J79" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K79" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L79" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M79" s="41"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-    </row>
-    <row r="80" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
-        <v>250</v>
-      </c>
-      <c r="B80" s="24">
-        <v>5.4</v>
-      </c>
-      <c r="C80" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D80" s="25">
-        <v>0</v>
-      </c>
-      <c r="E80" s="21">
-        <v>250</v>
-      </c>
-      <c r="F80" s="24">
-        <v>4.8</v>
-      </c>
-      <c r="G80" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="H80" s="25">
-        <v>0</v>
-      </c>
-      <c r="I80" s="21">
-        <v>250</v>
-      </c>
-      <c r="J80" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="K80" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="L80" s="25">
-        <v>0</v>
-      </c>
-      <c r="M80" s="41"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-    </row>
-    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <v>500</v>
-      </c>
-      <c r="B81" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C81" s="24">
-        <v>0</v>
-      </c>
-      <c r="D81" s="25">
-        <v>0</v>
-      </c>
-      <c r="E81" s="21">
-        <v>500</v>
-      </c>
-      <c r="F81" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="G81" s="24">
-        <v>0</v>
-      </c>
-      <c r="H81" s="25">
-        <v>0</v>
-      </c>
-      <c r="I81" s="21">
-        <v>500</v>
-      </c>
-      <c r="J81" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K81" s="24">
-        <v>0</v>
-      </c>
-      <c r="L81" s="25">
-        <v>0</v>
-      </c>
-      <c r="M81" s="41"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-    </row>
-    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B82" s="26">
-        <v>0</v>
-      </c>
-      <c r="C82" s="26">
-        <v>0</v>
-      </c>
-      <c r="D82" s="27">
-        <v>0</v>
-      </c>
-      <c r="E82" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F82" s="26">
-        <v>0</v>
-      </c>
-      <c r="G82" s="26">
-        <v>0</v>
-      </c>
-      <c r="H82" s="27">
-        <v>0</v>
-      </c>
-      <c r="I82" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J82" s="26">
-        <v>0</v>
-      </c>
-      <c r="K82" s="26">
-        <v>0</v>
-      </c>
-      <c r="L82" s="27">
-        <v>0</v>
-      </c>
-      <c r="M82" s="41"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-    </row>
-    <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
-        <v>0</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-    </row>
-    <row r="87" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B87" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C87" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D87" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E87" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F87" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H87" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I87" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J87" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K87" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L87" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M87" s="29"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-    </row>
-    <row r="88" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
-        <v>250</v>
-      </c>
-      <c r="B88" s="24">
-        <v>12.2</v>
-      </c>
-      <c r="C88" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D88" s="25">
-        <v>0</v>
-      </c>
-      <c r="E88" s="21">
-        <v>250</v>
-      </c>
-      <c r="F88" s="24">
-        <v>11.2</v>
-      </c>
-      <c r="G88" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="H88" s="25">
-        <v>0</v>
-      </c>
-      <c r="I88" s="21">
-        <v>250</v>
-      </c>
-      <c r="J88" s="24">
-        <v>10.6</v>
-      </c>
-      <c r="K88" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="L88" s="25">
-        <v>0</v>
-      </c>
-      <c r="M88" s="29"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-    </row>
-    <row r="89" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
-        <v>500</v>
-      </c>
-      <c r="B89" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="C89" s="24">
-        <v>0</v>
-      </c>
-      <c r="D89" s="25">
-        <v>0</v>
-      </c>
-      <c r="E89" s="21">
-        <v>500</v>
-      </c>
-      <c r="F89" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="G89" s="24">
-        <v>0</v>
-      </c>
-      <c r="H89" s="25">
-        <v>0</v>
-      </c>
-      <c r="I89" s="21">
-        <v>500</v>
-      </c>
-      <c r="J89" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="K89" s="24">
-        <v>0</v>
-      </c>
-      <c r="L89" s="25">
-        <v>0</v>
-      </c>
-      <c r="M89" s="29"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-    </row>
-    <row r="90" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B90" s="26">
-        <v>0</v>
-      </c>
-      <c r="C90" s="26">
-        <v>0</v>
-      </c>
-      <c r="D90" s="27">
-        <v>0</v>
-      </c>
-      <c r="E90" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F90" s="26">
-        <v>0</v>
-      </c>
-      <c r="G90" s="26">
-        <v>0</v>
-      </c>
-      <c r="H90" s="27">
-        <v>0</v>
-      </c>
-      <c r="I90" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J90" s="26">
-        <v>0</v>
-      </c>
-      <c r="K90" s="26">
-        <v>0</v>
-      </c>
-      <c r="L90" s="27">
-        <v>0</v>
-      </c>
-      <c r="M90" s="29"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-    </row>
-    <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
-        <v>1</v>
-      </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-    </row>
-    <row r="93" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A93" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B93" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C93" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D93" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E93" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F93" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G93" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H93" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I93" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J93" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K93" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L93" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M93" s="29"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-    </row>
-    <row r="94" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <v>250</v>
-      </c>
-      <c r="B94" s="24">
-        <v>5.4</v>
-      </c>
-      <c r="C94" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D94" s="25">
-        <v>0</v>
-      </c>
-      <c r="E94" s="21">
-        <v>250</v>
-      </c>
-      <c r="F94" s="24">
-        <v>4.8</v>
-      </c>
-      <c r="G94" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="H94" s="25">
-        <v>0</v>
-      </c>
-      <c r="I94" s="21">
-        <v>250</v>
-      </c>
-      <c r="J94" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="K94" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="L94" s="25">
-        <v>0</v>
-      </c>
-      <c r="M94" s="29"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-    </row>
-    <row r="95" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
-        <v>500</v>
-      </c>
-      <c r="B95" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="C95" s="24">
-        <v>0</v>
-      </c>
-      <c r="D95" s="25">
-        <v>0</v>
-      </c>
-      <c r="E95" s="21">
-        <v>500</v>
-      </c>
-      <c r="F95" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="G95" s="24">
-        <v>0</v>
-      </c>
-      <c r="H95" s="25">
-        <v>0</v>
-      </c>
-      <c r="I95" s="21">
-        <v>500</v>
-      </c>
-      <c r="J95" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K95" s="24">
-        <v>0</v>
-      </c>
-      <c r="L95" s="25">
-        <v>0</v>
-      </c>
-      <c r="M95" s="29"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-    </row>
-    <row r="96" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B96" s="26">
-        <v>0</v>
-      </c>
-      <c r="C96" s="26">
-        <v>0</v>
-      </c>
-      <c r="D96" s="27">
-        <v>0</v>
-      </c>
-      <c r="E96" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F96" s="26">
-        <v>0</v>
-      </c>
-      <c r="G96" s="26">
-        <v>0</v>
-      </c>
-      <c r="H96" s="27">
-        <v>0</v>
-      </c>
-      <c r="I96" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J96" s="26">
-        <v>0</v>
-      </c>
-      <c r="K96" s="26">
-        <v>0</v>
-      </c>
-      <c r="L96" s="27">
-        <v>0</v>
-      </c>
-      <c r="M96" s="29"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-    </row>
-    <row r="98" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-    </row>
-    <row r="100" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
-        <v>0</v>
-      </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-    </row>
-    <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="B101" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C101" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D101" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E101" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F101" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G101" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H101" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I101" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J101" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K101" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L101" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M101" s="44"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-    </row>
-    <row r="102" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
-        <v>250</v>
-      </c>
-      <c r="B102" s="24">
-        <v>54.4</v>
-      </c>
-      <c r="C102" s="24">
-        <v>11.4</v>
-      </c>
-      <c r="D102" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E102" s="21">
-        <v>250</v>
-      </c>
-      <c r="F102" s="24">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="G102" s="24">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H102" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="I102" s="21">
-        <v>250</v>
-      </c>
-      <c r="J102" s="24">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="K102" s="24">
-        <v>23.6</v>
-      </c>
-      <c r="L102" s="25">
-        <v>1</v>
-      </c>
-      <c r="M102" s="44"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-    </row>
-    <row r="103" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
-        <v>500</v>
-      </c>
-      <c r="B103" s="24">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C103" s="24">
-        <v>0</v>
-      </c>
-      <c r="D103" s="25">
-        <v>0</v>
-      </c>
-      <c r="E103" s="21">
-        <v>500</v>
-      </c>
-      <c r="F103" s="24">
-        <v>24.6</v>
-      </c>
-      <c r="G103" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="H103" s="25">
-        <v>0</v>
-      </c>
-      <c r="I103" s="21">
-        <v>500</v>
-      </c>
-      <c r="J103" s="24">
-        <v>37</v>
-      </c>
-      <c r="K103" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="L103" s="25">
-        <v>0</v>
-      </c>
-      <c r="M103" s="44"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-    </row>
-    <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B104" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="C104" s="26">
-        <v>0</v>
-      </c>
-      <c r="D104" s="27">
-        <v>0</v>
-      </c>
-      <c r="E104" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F104" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="G104" s="26">
-        <v>0</v>
-      </c>
-      <c r="H104" s="27">
-        <v>0</v>
-      </c>
-      <c r="I104" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J104" s="26">
-        <v>2.8</v>
-      </c>
-      <c r="K104" s="26">
-        <v>0</v>
-      </c>
-      <c r="L104" s="27">
-        <v>0</v>
-      </c>
-      <c r="M104" s="44"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
-    </row>
-    <row r="106" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
-        <v>1</v>
-      </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
-      <c r="K106" s="70"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
-    </row>
-    <row r="107" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A107" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="B107" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C107" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D107" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E107" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F107" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G107" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H107" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I107" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J107" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K107" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L107" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="M107" s="44"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
-    </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
-        <v>250</v>
-      </c>
-      <c r="B108" s="24">
-        <v>29.4</v>
-      </c>
-      <c r="C108" s="24">
-        <v>7</v>
-      </c>
-      <c r="D108" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="E108" s="21">
-        <v>250</v>
-      </c>
-      <c r="F108" s="24">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="G108" s="24">
-        <v>12</v>
-      </c>
-      <c r="H108" s="25">
-        <v>43</v>
-      </c>
-      <c r="I108" s="21">
-        <v>250</v>
-      </c>
-      <c r="J108" s="24">
-        <v>44.8</v>
-      </c>
-      <c r="K108" s="24">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L108" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="M108" s="44"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-    </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="23">
-        <v>500</v>
-      </c>
-      <c r="B109" s="24">
-        <v>4.8</v>
-      </c>
-      <c r="C109" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="D109" s="25">
-        <v>0</v>
-      </c>
-      <c r="E109" s="21">
-        <v>500</v>
-      </c>
-      <c r="F109" s="24">
-        <v>7.6</v>
-      </c>
-      <c r="G109" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="H109" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="I109" s="21">
-        <v>500</v>
-      </c>
-      <c r="J109" s="24">
-        <v>9.4</v>
-      </c>
-      <c r="K109" s="24">
-        <v>1.2</v>
-      </c>
-      <c r="L109" s="25">
-        <v>0</v>
-      </c>
-      <c r="M109" s="44"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-    </row>
-    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B110" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C110" s="26">
-        <v>0</v>
-      </c>
-      <c r="D110" s="27">
-        <v>0</v>
-      </c>
-      <c r="E110" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F110" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G110" s="26">
-        <v>0</v>
-      </c>
-      <c r="H110" s="27">
-        <v>0</v>
-      </c>
-      <c r="I110" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J110" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="K110" s="26">
-        <v>0</v>
-      </c>
-      <c r="L110" s="27">
-        <v>0</v>
-      </c>
-      <c r="M110" s="44"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A106:L106"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A78:L78"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>